--- a/8. 资源组长工作框架/1. 例行工作/资源组例会/平台组态资源例会纪要-2021.xlsx
+++ b/8. 资源组长工作框架/1. 例行工作/资源组例会/平台组态资源例会纪要-2021.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>检视：</t>
   </si>
@@ -65,6 +65,33 @@
   </si>
   <si>
     <t>3. 生日会什么时候举行(2020一年未举行)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴楠：
+1. 会发，时间不确定，需兰总点头，他卡着不同意
+2. 元旦前的加班已申报加班费，不能调休
+3. 元旦后的加班都按调休，不给加班费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴楠：
+最快6月底，即α发版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王斌：
+第一个全功能发版后举行，目前暂定4月20号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王斌：
+会举行，目前方式还需要确定下（和其它资源组讨论下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴楠：
+会沟通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,35 +197,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,12 +513,14 @@
   <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15">
@@ -499,58 +531,62 @@
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="16.5">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5">
-      <c r="B4" s="7" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="30.75" customHeight="1">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="16.5">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="16.5">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.5">
-      <c r="B7" s="7" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="63.75" customHeight="1">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="16.5">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="16.5">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="16.5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="B11" s="8" t="s">
@@ -560,70 +596,86 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="16.5">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5">
-      <c r="B13" s="7" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="33.75" customHeight="1">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="16.5">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="16.5">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5">
-      <c r="B16" s="7" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="33" customHeight="1">
+      <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="2:4" ht="16.5">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="2:4" ht="16.5">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" ht="16.5">
-      <c r="B19" s="7" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="2:4" ht="35.25" customHeight="1">
+      <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="2:4" ht="16.5">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C13:D13"/>
@@ -631,16 +683,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
